--- a/P0095/09_FICHAS/N2-FP-INFORME.xlsx
+++ b/P0095/09_FICHAS/N2-FP-INFORME.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28412"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\S3_Buckets\foa-prod-comp-fenomenologico-bucket\foa_puj_curada\P0095\09_FICHAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0095/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73C1F8D-C928-4525-B663-F4FFD2EE74D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{D73C1F8D-C928-4525-B663-F4FFD2EE74D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69F1B6E8-3FF1-4BD4-8FF7-43AAB26997C7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -95,10 +95,13 @@
     <t>P0095</t>
   </si>
   <si>
+    <t>PR0001</t>
+  </si>
+  <si>
     <t>producto_7_informe_tecnico_analitico_describiendo_los_metodos_y_resultados_de_los_modelos_para_priorizar_areas_de_rehabilitación_y_conservacion.</t>
   </si>
   <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0095/02_PRODUCTOS/Contrato 19-206/Producto 7</t>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0095/02_PRODUCTOS/Contrato 19-206/Producto 7/producto_7_informe_tecnico_analitico_describiendo_los_metodos_y_resultados_de_los_modelos_para_priorizar_areas_de_rehabilitacion_y_conservacion..pdf</t>
   </si>
   <si>
     <t>Instituto de Investigación de Recursos Biológicos Alexander von Humboldt</t>
@@ -107,16 +110,16 @@
     <t>NA</t>
   </si>
   <si>
-    <t>El informe se centró en la evolución y priorización de áreas críticas para la restauración ecológica en la región de La Mojana, Colombia. Este informe hizo parte del macroproyecto "Mojana, Clima y Vida", financiado por el Fondo Verde del Clima y liderado por el Programa de las Naciones Unidas para el Desarrollo (PNUD), en colaboración con el Ministerio de Ambiente y Desarrollo Sostenible (Min Ambiente) y el Fondo de Adaptación. Su objetivo principal fue identificar y priorizar áreas para la rehabilitación y conservación de ecosistemas en La Mojana, con el fin de mejorar la resiliencia de los ecosistemas y las comunidades locales frente al cambio climático. Con ello, se buscó, proporcionar un marco técnico que permitió la implementación de estrategias efectivas de restauración y conservación, integrando la participación comunitaria y el análisis de servicios ecosistémicos. Este documento se estructuro de la siguiente manera: Descripción del área de estudio, metodología de análisis espacial, identificación de oportunidades de restauración, zonificación de servicios ecosistémicos, estrategias de manejo y restauración, monitoreo y evaluación.</t>
+    <t>El documento corresponde al producto VII, elaborado para el macroproyecto “Mojana, Clima y Vida”, financiado por el Fondo Verde del Clima y liderado por el Programa de las Naciones Unidas para el Desarrollo (PNUD), en colaboración con el Ministerio de Ambiente y Desarrollo Sostenible (Min Ambiente) y el Fondo de Adaptación. El documento se denomina “Informe técnico analítico describiendo los métodos y resultados de los modelos para priorizar áreas de rehabilitación y conservación”. Su objetivo principal fue identificar y priorizar áreas para la rehabilitación y conservación de ecosistemas en La Mojana, con el fin de mejorar la resiliencia de los ecosistemas y las comunidades locales frente al cambio climático. Con ello, se buscó, proporcionar un marco técnico que permitió la implementación de estrategias efectivas de restauración y conservación, integrando la participación comunitaria y el análisis de servicios ecosistémicos. Este documento se estructuro de la siguiente manera: Descripción del área de estudio, metodología de análisis espacial, identificación de oportunidades de restauración, zonificación de servicios ecosistémicos, estrategias de manejo y restauración, monitoreo y evaluación.</t>
   </si>
   <si>
     <t>Informe</t>
   </si>
   <si>
-    <t>Pdf</t>
-  </si>
-  <si>
-    <t>El objetivo principal del documento fue identificar y priorizar áreas para la rehabilitación y conservación de ecosistemas en La Mojana, con el fin de mejorar la resiliencia de los ecosistemas y las comunidades locales frente al cambio climático. Se busco proporcionar un marco técnico que permita la implementación de estrategias efectivas de restauración y conservación, integrando la participación comunitaria y el análisis de servicios ecosistémicos. Como metodología se utilizó el análisis espacial, evaluación de servicios ecosistémicos y participación comunitaria. Se emplearon herramientas de SIG para la recopilación y análisis de datos geoespaciales, lo que permitió una visualización clara de las áreas prioritarias para la restauración. Además, se integraron datos de campo y estudios previos para enriquecer el análisis. En cuanto a los resultados del informe, se identificaron que los núcleos de conectividad de alta integridad ecológica que son representativos de calidad de hábitat, los cuales son esenciales para la dispersión de semillas por aves y murciélagos. Las áreas de conectividad potencial fueron mapeadas, destacando las rutas más efectivas para la restauración de la conectividad ecológica. Así mismo, la zonificación de servicios ecosistémicos se realizó mediante un análisis espacial que permitió identificar áreas con mayor acumulación de servicios ecosistémicos, como: la regulación hídrica, la polinización y almacenamiento de carbono, lo que sugiere que la restauración de la conectividad puede mejorar significativamente la provisión de estos servicios en la región. Las estrategias para la restauración del paisaje fueron las siguientes: la preservación de áreas naturales, la restauración de ecosistemas degradados, la mejora de prácticas productivas en áreas agrícolas y la reactivación de la conectividad funcional. El enfoque en la adaptación al cambio climático. Este informe enfatizo la importancia de la rehabilitación de ecosistemas acuáticos y la provisión de servicios ecosistémicos como un enfoque práctico para reducir la vulnerabilidad de las comunidades ante el cambio climático. También fue importante establecer un sistema de monitoreo para evaluar la efectividad de las estrategias implementadas y realizar ajustes según sea necesario. Por último, el documento concluye que la implementación de estrategias de restauración y conservación en las áreas priorizadas no solo beneficiará la biodiversidad, sino que también mejorará la seguridad y calidad de vida de las comunidades locales. Se destacó la necesidad de un enfoque colaborativo que involucre a las comunidades en la gestión de los recursos naturales.</t>
+    <t>pdf</t>
+  </si>
+  <si>
+    <t>El documento se centró en identificar y priorizar áreas para la rehabilitación y conservación de ecosistemas en La Mojana, con el fin de mejorar la resiliencia de los ecosistemas y las comunidades locales frente al cambio climático. Se busco proporcionar un marco técnico que permita la implementación de estrategias efectivas de restauración y conservación, integrando la participación comunitaria y el análisis de servicios ecosistémicos. Como metodología se utilizó el análisis espacial, evaluación de servicios ecosistémicos y participación comunitaria. Se emplearon herramientas de SIG para la recopilación y análisis de datos geoespaciales, lo que permitió una visualización clara de las áreas prioritarias para la restauración. Además, se integraron datos de campo y estudios previos para enriquecer el análisis. En cuanto a los resultados del informe, se identificaron que los núcleos de conectividad de alta integridad ecológica que son representativos de calidad de hábitat, los cuales son esenciales para la dispersión de semillas por aves y murciélagos. Las áreas de conectividad potencial fueron mapeadas, destacando las rutas más efectivas para la restauración de la conectividad ecológica. Así mismo, la zonificación de servicios ecosistémicos se realizó mediante un análisis espacial que permitió identificar áreas con mayor acumulación de servicios ecosistémicos, como: la regulación hídrica, la polinización y almacenamiento de carbono, lo que sugiere que la restauración de la conectividad puede mejorar significativamente la provisión de estos servicios en la región. Las estrategias para la restauración del paisaje fueron las siguientes: la preservación de áreas naturales, la restauración de ecosistemas degradados, la mejora de prácticas productivas en áreas agrícolas y la reactivación de la conectividad funcional. El enfoque en la adaptación al cambio climático. Este informe enfatizo la importancia de la rehabilitación de ecosistemas acuáticos y la provisión de servicios ecosistémicos como un enfoque práctico para reducir la vulnerabilidad de las comunidades ante el cambio climático. También fue importante establecer un sistema de monitoreo para evaluar la efectividad de las estrategias implementadas y realizar ajustes según sea necesario. Por último, el documento concluye que la implementación de estrategias de restauración y conservación en las áreas priorizadas no solo beneficiará la biodiversidad, sino que también mejorará la seguridad y calidad de vida de las comunidades locales. Se destacó la necesidad de un enfoque colaborativo que involucre a las comunidades en la gestión de los recursos naturales.</t>
   </si>
   <si>
     <t>No</t>
@@ -125,62 +128,59 @@
     <t xml:space="preserve">El documento presenta un análisis exhaustivo y bien estructurado sobre la situación ecológica de La Mojana, lo que refleja un esfuerzo significativo en la recopilación y presentación de datos. La inclusión de mapas y gráficos facilita la comprensión de los hallazgos y permite una visualización clara de las áreas prioritarias para la restauración. Aunque el informe es detallado, hay áreas donde la información podría ser más completa. </t>
   </si>
   <si>
-    <t>Servicios ecosistemicos, Cambio climático, Ecosistemas, Restauración, Conservación, Biodiversidad, Comunidad, Núcleos ecológicos, Estrategias de restauració, Mojana, Conectividad, Zonificación, Participación comunitaria</t>
+    <t>Servicios ecosistémicos, cambio climático, ecosistemas, restauración, conservación, biodiversidad, comunidad, núcleos ecológicos, estrategias de restauración, Mojana, conectividad, zonificación, participación comunitaria.</t>
+  </si>
+  <si>
+    <t>PR0002</t>
   </si>
   <si>
     <t>producto_8_informe_tecnico_analitico_final_con_las_prioridades_sociales_para_la_restauración</t>
   </si>
   <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0095/02_PRODUCTOS/Contrato 19-206/Producto 8</t>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0095/02_PRODUCTOS/Contrato 19-206/Producto 8/producto_8_informe_tecnico_analitico_final_con_las_prioridades_sociales_para_la_restauracion.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">El informe se centró en la identificación y priorización de acciones de restauración de ecosistemas en la región de Mojana, Colombia. Este informe fue el resultado de un esfuerzo colaborativo entre el Instituto de Investigación de Recursos Biológicos Alexander von Humboldt y diversas comunidades locales, con el objetivo de mejorar la capacidad adaptativa de los ecosistemas y los medios de vida de las personas que dependen de ellos. Su objetivo principal fue identificar las prioridades sociales de restauración en la región de Mojana, así como proponer medidas concretas que faciliten la rehabilitación de ecosistemas, especialmente humedales. Se buscó fomentar la participación activa de las comunidades locales en el proceso de restauración, asegurando que sus necesidades y conocimientos sean considerados en la planificación y ejecución de las acciones. Este documento se estructuro de la siguiente manera: Introducción, Justificación, Parte Uno (Metodologías para la identificación de las prioridades sociales de la restauración), Parte Dos (Objetivos y marco conceptual para la identificación de prioridades sociales de restauración), Parte tres (Descripción del contexto social de las comunidades de la Mojana, situación actual de los procesos organizativos y  motivaciones de las familias que hacen parte del programa Mojana Clima y Vida), Parte Cuatro (Descripción de microhábitats priorizados con las comunidades, prioridades sociales de restauración identificadas y acciones de restauración para la gente y las comunidades), Bibliografía y Anexos.  </t>
   </si>
   <si>
-    <t>El principal objetivo del documento fue identificar las prioridades sociales de restauración en la región de Mojana, así como proponer medidas concretas que faciliten la rehabilitación de ecosistemas, especialmente humedales. Se buscó fomentar la participación activa de las comunidades locales en el proceso de restauración, asegurando que sus necesidades y conocimientos sean considerados en la planificación y ejecución de las acciones. El informe empleo una metodología de investigación acción participativa (IAP), que permitó la inclusión activa de las comunidades en el proceso de identificación de prioridades. Se realizó recorridos de campo y conversatorios para recoger información cualitativa y cuantitativa. Además, se utilizaron herramientas de análisis social y ambiental para evaluar las condiciones de los ecosistemas y las necesidades de las comunidades. Los principales resultados de este informe fueron los siguientes: 1. La identificación de prioridades sociales, donde se realizó un análisis participativo que permitió identificar las prioridades sociales de las comunidades, las cuales son fundamentales para el diseño e implementación de acciones de restauración. Este proceso incluyó la recopilación de criterios sociales a través de visitas y diálogos con las comunidades, 2. Medidas de Adaptación basadas en ecosistemas (AeB), en ellas se identificaron y evaluaron diversas medidas AbE que han demostrado ser efectivas en la restauración de ecosistemas. Las recomendaciones incluyeron mantener, replicar y escalar estas medidas en diferentes macrohábitats y comunidades, 3. Marco conceptual, se desarrolló un marco conceptual que integra la investigación acción participativa (IAP) y el enfoque de género, destacando la importancia de los saberes tradicionales en la identificación de prioridades sociales y en la adaptación al cambio climático, 4. Participación comunitaria, se enfatizó la necesidad de involucrar a las comunidades, especialmente a las mujeres, en todas las fases del proceso de restauración, desde la planificación hasta la implementación y monitoreo, 5. Criterios para la priorización de Macrohábitats, se definieron los criterios técnicos y sociales utilizados para priorizar los Macrohábitats a restaurar, considerando factores como el nivel de disturbio, la disponibilidad de recursos y las prácticas de manejo y  6. Recomendaciones para la rehabilitación, se sugirieron acciones específicas para asegurar la inclusión de las comunidades en el proceso de rehabilitación, así como la necesidad de socializar claramente los objetivos y beneficios del proyecto. Por último, el informe concluye que la restauración de ecosistemas en la región de Mojana debe ser un proceso inclusivo que considere las prioridades sociales de las comunidades locales. La implementación de medidas AbE, junto con un enfoque participativo y de género, es crucial para el éxito de las iniciativas de restauración. Además, se destacó la importancia de la colaboración entre diferentes actores, incluyendo instituciones y comunidades, para fortalecer la capacidad adaptativa de los ecosistemas y mejorar los medios de vida de las personas que dependen de ellos.</t>
-  </si>
-  <si>
-    <t>El documento presenta un análisis exhaustivo y bien estructurado sobre las prioridades sociales de restauración en la región de Mojana. La inclusión de datos cualitativos y cuantitativos, obtenidos a través de metodologías participativas, enriquece la validez de los hallazgos. Sin embargo, sería beneficioso contar con más datos cuantitativos que respalden las conclusiones, lo que podría fortalecer aún más la argumentación. El documento menciona que contiene anexos, mas no estan contenidos en el mismo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Restauración, Ecosistemas, Humedales, Adaptación, Comunidades, Prioridades sociales, Investigación acción participativa, Medidas basadas en ecosistemas, Participación comunitaria, Género, Rehabilitación,  Majagual, Guaranda, Achí Mojana, Ciénagas, Zapales </t>
+    <t>El documento presenta un análisis e identificación de las prioridades sociales de restauración en la región de Mojana, así como proponer medidas concretas que faciliten la rehabilitación de ecosistemas, especialmente humedales. Se buscó fomentar la participación activa de las comunidades locales en el proceso de restauración, asegurando que sus necesidades y conocimientos sean considerados en la planificación y ejecución de las acciones. El informe empleo una metodología de investigación acción participativa (IAP), que permitió la inclusión activa de las comunidades en el proceso de identificación de prioridades. Se realizó recorridos de campo y conversatorios para recoger información cualitativa y cuantitativa. Además, se utilizaron herramientas de análisis social y ambiental para evaluar las condiciones de los ecosistemas y las necesidades de las comunidades. Los principales resultados de este informe fueron los siguientes: 1. La identificación de prioridades sociales, donde se realizó un análisis participativo que permitió identificar las prioridades sociales de las comunidades, las cuales son fundamentales para el diseño e implementación de acciones de restauración. Este proceso incluyó la recopilación de criterios sociales a través de visitas y diálogos con las comunidades, 2. Medidas de Adaptación basadas en ecosistemas (AeB), en ellas se identificaron y evaluaron diversas medidas AbE que han demostrado ser efectivas en la restauración de ecosistemas. Las recomendaciones incluyeron mantener, replicar y escalar estas medidas en diferentes macrohábitats y comunidades, 3. Marco conceptual, se desarrolló un marco conceptual que integra la investigación acción participativa (IAP) y el enfoque de género, destacando la importancia de los saberes tradicionales en la identificación de prioridades sociales y en la adaptación al cambio climático, 4. Participación comunitaria, se enfatizó la necesidad de involucrar a las comunidades, especialmente a las mujeres, en todas las fases del proceso de restauración, desde la planificación hasta la implementación y monitoreo, 5. Criterios para la priorización de Macrohábitats, se definieron los criterios técnicos y sociales utilizados para priorizar los Macrohábitats a restaurar, considerando factores como el nivel de disturbio, la disponibilidad de recursos y las prácticas de manejo y  6. Recomendaciones para la rehabilitación, se sugirieron acciones específicas para asegurar la inclusión de las comunidades en el proceso de rehabilitación, así como la necesidad de socializar claramente los objetivos y beneficios del proyecto. Por último, el informe concluye que la restauración de ecosistemas en la región de Mojana debe ser un proceso inclusivo que considere las prioridades sociales de las comunidades locales. La implementación de medidas AbE, junto con un enfoque participativo y de género, es crucial para el éxito de las iniciativas de restauración. Además, se destacó la importancia de la colaboración entre diferentes actores, incluyendo instituciones y comunidades, para fortalecer la capacidad adaptativa de los ecosistemas y mejorar los medios de vida de las personas que dependen de ellos.</t>
+  </si>
+  <si>
+    <t>El documento presenta un análisis exhaustivo y bien estructurado sobre las prioridades sociales de restauración en la región de Mojana. La inclusión de datos cualitativos y cuantitativos, obtenidos a través de metodologías participativas, enriquece la validez de los hallazgos. Sin embargo, sería beneficioso contar con más datos cuantitativos que respalden las conclusiones, lo que podría fortalecer aún más la argumentación. El documento menciona que contiene anexos, mas no están contenidos en el mismo.</t>
+  </si>
+  <si>
+    <t>Restauración, ecosistemas, humedales, adaptación, comunidades, prioridades sociales, investigación acción participativa, medidas basadas en ecosistemas, participación comunitaria, género, rehabilitación,  Majagual, Guaranda, Achí, ciénagas, zápales.</t>
+  </si>
+  <si>
+    <t>PR0003</t>
   </si>
   <si>
     <t>producto_11_sistema_de_monitoreo_con_enfoque_participativo</t>
   </si>
   <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0095/02_PRODUCTOS/Contrato 19-206/Producto 11</t>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0095/02_PRODUCTOS/Contrato 19-206/Producto 11/producto_11_sistema_de_monitoreo_con_enfoque_participativo.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Programa de las Naciones Unidas para el Desarrollo </t>
   </si>
   <si>
-    <t xml:space="preserve">El documento se centró en el desarrollo de un sistema de monitoreo que promueve la participación activa de las comunidades locales en la rehabilitación de ecosistemas en la región de La Mojana, Colombia. Este proyecto es parte del programa "Mojana, Clima y Vida", financiado por el Fondo Verde del Clima y liderado por el Programa de las Naciones Unidas para el Desarrollo (PNUD), el Ministerio de Ambiente y Desarrollo Sostenible (MADS) y el Fondo de Adaptación. Su Objetivo principal fue diseñar e implementar un sistema de monitoreo participativo que permita a los actores locales evaluar la efectividad de las acciones de rehabilitación en los ecosistemas anfibios de La Mojana. Se buscó incrementar la capacidad adaptativa de los ecosistemas naturales y de los medios de vida basados en estos, promoviendo la resiliencia ante el cambio climático. Este documento se estructuro de la siguiente manera: Acrónimos, Resumen ejecutivo, Introducción, Objetivos, Marco conceptual, Sistema de monitoreo con enfoque participativo, Monitoreo participativo de la rehabilitación, Cronograma de actividades desarrolladas, reflexiones y consideraciones, Conclusiones, Bibliografía y Anexos  </t>
-  </si>
-  <si>
-    <t>El principal objetivo del documento fue diseñar e implementar un sistema de monitoreo participativo que permita a los actores locales evaluar la efectividad de las acciones de rehabilitación en los ecosistemas anfibios de La Mojana. Se buscó incrementar la capacidad adaptativa de los ecosistemas naturales y de los medios de vida basados en estos, promoviendo la resiliencia ante el cambio climático. Las metodologías empleadas en este informe fueron las siguientes: a. Metodologías participativas, para involucrar a las comunidades en el diseño y ejecución del monitoreo b. Cartografía social, para la identificación de unidades de muestreo y la creación de mapas temáticos que reflejan las características del territorio y c. Protocolos de recolección de datos, que aseguran la estandarización y calidad de la información recopilada. Los resultados principales de este informe fueron: 1. Implementación de un sistema de monitoreo participativo, en el cual, se desarrolló un esquema de monitoreo que incluye tres fases (planeación, implementación y evaluación) y ocho pasos, permitiendo a las comunidades documentar el proceso de rehabilitación y evaluar el cumplimiento de las metas establecidas, 2. Capacitaciones de PARES, donde, la inclusión de los PARES (personas articuladas) en el programa de monitoreo enriqueció el contenido temático y facilitó la capacitación de los participantes en el diseño y ejecución del sistema de monitoreo, lo que resultó en un mayor compromiso y capacidad local para gestionar los recursos, 3. Importancia del enfoque de género, se destacó la necesidad de un enfoque de género en el monitoreo participativo, asegurando que las voces de mujeres y jóvenes sean escuchadas y que sus necesidades sean integradas en el proceso de rehabilitación, y 5. Recomendaciones para la sostenibilidad, se sugiero continuar con la socialización de mapas temáticos y la definición de unidades de muestreo en colaboración con las comunidades. Además, se recomendó, establecer un diálogo constante entre expertos y miembros de la comunidad para fortalecer el conocimiento y la gestión del socioecosistema. En conclusión, el sistema de monitoreo participativo demostrado ser una herramienta efectiva para involucrar a las comunidades en la rehabilitación de sus ecosistemas. La capacitación y el empoderamiento de los PARES son fundamentales para garantizar la sostenibilidad del proceso. La integración de un enfoque de género y la adaptación de metodologías a las realidades locales son esenciales para el éxito del monitoreo.</t>
-  </si>
-  <si>
-    <t>Los temas abordados son de gran relevancia para la gestión ambiental y la rehabilitación ecológica, especialmente en el contexto de cambio climático y la necesidad de involucrar a las comunidades locales. La inclusión de un enfoque participativo es un aspecto positivo que resalta la importancia de la colaboración entre expertos y comunidades.El documento menciona que contiene anexos, mas no estan en el mismo.</t>
-  </si>
-  <si>
-    <t>Monitoreo participativo, Rehabilitación ecológica, Adapatación climática, Ecosistemas, Comunidad, Indicadores, Capacitación, Estrategia PARES, Macrohábitats, Colaboración, Mojana</t>
-  </si>
-  <si>
-    <t>PR0001</t>
-  </si>
-  <si>
-    <t>PR0002</t>
-  </si>
-  <si>
-    <t>PR0003</t>
+    <t>El documento corresponde al producto XI. “Sistema de Monitoreo con Enfoque Participativo”. Este documento es parte del programa "Mojana, Clima y Vida", financiado por el Fondo Verde del Clima y liderado por el Programa de las Naciones Unidas para el Desarrollo (PNUD), el Ministerio de Ambiente y Desarrollo Sostenible (MADS) y el Fondo de Adaptación. Su Objetivo principal fue diseñar e implementar un sistema de monitoreo participativo que permita a los actores locales evaluar la efectividad de las acciones de rehabilitación en los ecosistemas anfibios de La Mojana.</t>
+  </si>
+  <si>
+    <t>Este documento se estructuro de la siguiente manera: Acrónimos, Resumen ejecutivo, Introducción, Objetivos, Marco conceptual, Sistema de monitoreo con enfoque participativo, Monitoreo participativo de la rehabilitación, Cronograma de actividades desarrolladas, reflexiones y consideraciones, Conclusiones, Bibliografía y Anexos . El principal objetivo del documento fue diseñar e implementar un sistema de monitoreo participativo que permita a los actores locales evaluar la efectividad de las acciones de rehabilitación en los ecosistemas anfibios de La Mojana. Se buscó incrementar la capacidad adaptativa de los ecosistemas naturales y de los medios de vida basados en estos, promoviendo la resiliencia ante el cambio climático. Las metodologías empleadas en este informe fueron las siguientes: a. Metodologías participativas, para involucrar a las comunidades en el diseño y ejecución del monitoreo b. Cartografía social, para la identificación de unidades de muestreo y la creación de mapas temáticos que reflejan las características del territorio y c. Protocolos de recolección de datos, que aseguran la estandarización y calidad de la información recopilada. Los resultados principales de este informe fueron: 1. Implementación de un sistema de monitoreo participativo, en el cual, se desarrolló un esquema de monitoreo que incluye tres fases (planeación, implementación y evaluación) y ocho pasos, permitiendo a las comunidades documentar el proceso de rehabilitación y evaluar el cumplimiento de las metas establecidas, 2. Capacitaciones de PARES, donde, la inclusión de los PARES (personas articuladas) en el programa de monitoreo enriqueció el contenido temático y facilitó la capacitación de los participantes en el diseño y ejecución del sistema de monitoreo, lo que resultó en un mayor compromiso y capacidad local para gestionar los recursos, 3. Importancia del enfoque de género, se destacó la necesidad de un enfoque de género en el monitoreo participativo, asegurando que las voces de mujeres y jóvenes sean escuchadas y que sus necesidades sean integradas en el proceso de rehabilitación, y 5. Recomendaciones para la sostenibilidad, se sugiero continuar con la socialización de mapas temáticos y la definición de unidades de muestreo en colaboración con las comunidades. Además, se recomendó, establecer un diálogo constante entre expertos y miembros de la comunidad para fortalecer el conocimiento y la gestión del socio ecosistema. En conclusión, el sistema de monitoreo participativo demostrado ser una herramienta efectiva para involucrar a las comunidades en la rehabilitación de sus ecosistemas. La capacitación y el empoderamiento de los PARES son fundamentales para garantizar la sostenibilidad del proceso. La integración de un enfoque de género y la adaptación de metodologías a las realidades locales son esenciales para el éxito del monitoreo.</t>
+  </si>
+  <si>
+    <t>Los temas abordados son de gran relevancia para la gestión ambiental y la rehabilitación ecológica, especialmente en el contexto de cambio climático y la necesidad de involucrar a las comunidades locales. La inclusión de un enfoque participativo es un aspecto positivo que resalta la importancia de la colaboración entre expertos y comunidades. El documento menciona que contiene anexos, mas no están en el mismo.</t>
+  </si>
+  <si>
+    <t>Monitoreo participativo, rehabilitación ecológica, adapatación climática, ecosistemas, comunidad, indicadores, capacitación, estrategia PARES, macrohábitats, colaboración, Mojana</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,7 +287,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="21">
@@ -622,15 +622,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -638,6 +629,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -657,7 +657,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{071F1EEE-F40A-4A05-BF36-E5D4A7F1ECBC}" name="Tabla2" displayName="Tabla2" ref="A1:R5" totalsRowShown="0" headerRowBorderDxfId="20" tableBorderDxfId="19" totalsRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{071F1EEE-F40A-4A05-BF36-E5D4A7F1ECBC}" name="Tabla2" displayName="Tabla2" ref="A1:R5" totalsRowShown="0" headerRowBorderDxfId="19" tableBorderDxfId="20" totalsRowBorderDxfId="18">
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{0EB386ED-25C4-4E98-8607-7E1DEB7DDB25}" name="CODIGO DE PROYECTO" dataDxfId="17"/>
     <tableColumn id="2" xr3:uid="{A2B4539E-FF4A-4F1D-84B8-31E807539DC0}" name="CODIGO DE PRODUCTO" dataDxfId="16"/>
@@ -673,9 +673,9 @@
     <tableColumn id="11" xr3:uid="{40F29E93-00E0-47EA-AF36-91914620CA4E}" name="TIPO DE PRODUCTO" dataDxfId="6"/>
     <tableColumn id="12" xr3:uid="{A9C5F90F-7224-4707-8B96-A03FEC01F531}" name="FORMATO" dataDxfId="5"/>
     <tableColumn id="13" xr3:uid="{F4F0116A-DBB0-4CF0-81C2-08E9870DA599}" name="RESUMEN" dataDxfId="4"/>
-    <tableColumn id="14" xr3:uid="{52F39B70-3383-437B-BDD0-78B7C6344B54}" name="CONTIENE ANEXOS" dataDxfId="3" dataCellStyle="Hipervínculo"/>
+    <tableColumn id="14" xr3:uid="{52F39B70-3383-437B-BDD0-78B7C6344B54}" name="CONTIENE ANEXOS" dataDxfId="3"/>
     <tableColumn id="15" xr3:uid="{C8153761-218F-4F48-8D3C-3D901A0B2064}" name="ANEXOS" dataDxfId="2"/>
-    <tableColumn id="17" xr3:uid="{6024A4C9-2087-4496-BE27-B45D9C0DFD5A}" name="OBSERVACIONES" dataDxfId="1" dataCellStyle="Hipervínculo"/>
+    <tableColumn id="17" xr3:uid="{6024A4C9-2087-4496-BE27-B45D9C0DFD5A}" name="OBSERVACIONES" dataDxfId="1"/>
     <tableColumn id="18" xr3:uid="{445C282B-F55F-48A3-B48E-9ED039D137ED}" name="PALABRAS CLAVE" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -948,10 +948,10 @@
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="20.42578125" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" customWidth="1"/>
@@ -968,7 +968,7 @@
     <col min="16" max="16" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1024,175 +1024,175 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" s="1">
         <v>2020</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="Q2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E3" s="1">
         <v>2020</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E4" s="1">
         <v>2020</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="14.25" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1222,6 +1222,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010097FB7C5121AAD04EA5DBB516CB842770" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="ca6bde7a5d319871883c00f261789bac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3277f09b-73d6-4795-b7e6-f63d7d60cc69" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6422850a7e45dad78806fd17bfbce0a" ns2:_="">
     <xsd:import namespace="3277f09b-73d6-4795-b7e6-f63d7d60cc69"/>
@@ -1365,37 +1374,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3277f09b-73d6-4795-b7e6-f63d7d60cc69"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}"/>
 </file>